--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090446.296492263</v>
+        <v>1118181.791524488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>554632.3851215401</v>
       </c>
     </row>
     <row r="8">
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -719,13 +719,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>63.98874752582401</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,14 +893,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.86155971440648</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S8" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T8" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>118.4871633088199</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.0845863575149</v>
+        <v>4.615331340543814</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>88.00880902957793</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>8.346463858805084</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I13" t="n">
-        <v>21.38816470214937</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -1573,7 +1573,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>278.8265697844214</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501924</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>94.1200107839131</v>
       </c>
       <c r="Y18" t="n">
-        <v>134.5658975014682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.332058976593604</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>26.59997948479764</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>83.0059401983183</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>128.4562226808342</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2175,10 +2175,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>17.67528667478795</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>165.6221850809705</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>251.3956371273674</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.9188258351986</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>60.04328876407759</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>206.057693743878</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>160.0903419479081</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>242.7279497565031</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>234.0855190614066</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>134.5487597900761</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>76.07967080018476</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>224.1483086757886</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>244.7643066803899</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>7.425224531301852</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>15.13518083054779</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>47.74806282379132</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>304.3431635122476</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,22 +3111,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>106.7571142460216</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>8.346463858805084</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.65343661111034</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>35.76004691138445</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>92.77249207703716</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -3314,22 +3314,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>278.826569784421</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531301852</v>
+        <v>96.19094126559263</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>94.22288120179358</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>315.0836539862419</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>141.6396260835077</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>134.6561869276413</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31881265622893</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>197.8835519998332</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>122.1359927426592</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>192.2311228028333</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>106.0890042129122</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>264.0251236100225</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969023</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>17.95817021688007</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>9.359359084874345</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4113,16 +4113,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>154.7035361832092</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4352,25 +4352,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X5" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>227.8867759685313</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.0119685275972</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C9" t="n">
-        <v>158.0119685275972</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D9" t="n">
-        <v>158.0119685275972</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>365.7722672925511</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.0119685275972</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>607.9036081666529</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C11" t="n">
-        <v>607.9036081666529</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D11" t="n">
-        <v>607.9036081666529</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E11" t="n">
-        <v>222.1153555684087</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F11" t="n">
         <v>222.1153555684087</v>
@@ -5036,7 +5036,7 @@
         <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1384.642780206586</v>
+        <v>1618.304337138575</v>
       </c>
       <c r="T11" t="n">
-        <v>1384.642780206586</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="U11" t="n">
-        <v>1384.642780206586</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="V11" t="n">
-        <v>1384.642780206586</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="W11" t="n">
-        <v>1384.642780206586</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="X11" t="n">
-        <v>1384.642780206586</v>
+        <v>1022.094659258263</v>
       </c>
       <c r="Y11" t="n">
-        <v>994.5034482307747</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.066492846507</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>1374.066492846507</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W12" t="n">
-        <v>1374.066492846507</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>121.3571126583158</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H13" t="n">
-        <v>129.490276430019</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
         <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="C14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="D14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="E14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="F14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521505</v>
@@ -5282,10 +5282,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,7 +5300,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
         <v>1311.402045381201</v>
@@ -5309,19 +5309,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V14" t="n">
-        <v>503.7583553506526</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
@@ -5367,40 +5367,40 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5458,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521505</v>
@@ -5522,7 +5522,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,7 +5537,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
         <v>1311.402045381201</v>
@@ -5546,19 +5546,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942227</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W17" t="n">
-        <v>150.9897000805379</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="C18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>91.8829712494292</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>389.6147262310924</v>
       </c>
       <c r="M18" t="n">
-        <v>636.3836421851986</v>
+        <v>789.0328628353553</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5625,19 +5625,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5695,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1270.197632717495</v>
+        <v>396.1363916188615</v>
       </c>
       <c r="C20" t="n">
-        <v>1270.197632717495</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D20" t="n">
-        <v>911.9319341107446</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E20" t="n">
-        <v>526.1436815125003</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F20" t="n">
-        <v>526.1436815125003</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G20" t="n">
-        <v>116.3037097984575</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5756,10 +5756,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5774,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>1156.201989944063</v>
       </c>
       <c r="X20" t="n">
-        <v>1270.197632717495</v>
+        <v>782.7362316829833</v>
       </c>
       <c r="Y20" t="n">
-        <v>1270.197632717495</v>
+        <v>782.7362316829833</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>944.9608164894781</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497702</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
         <v>1057.709031609043</v>
@@ -5853,28 +5853,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V21" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W21" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="X21" t="n">
-        <v>944.9608164894781</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y21" t="n">
-        <v>944.9608164894781</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="H22" t="n">
         <v>1294.179012144411</v>
@@ -5935,25 +5935,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.286351224524</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>1455.671151542184</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1013.622528304255</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="C23" t="n">
-        <v>644.6600113638435</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="D23" t="n">
-        <v>286.394312757093</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>553.34649277568</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>553.34649277568</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>553.34649277568</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
@@ -6017,22 +6017,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1400.222368368377</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W23" t="n">
-        <v>1400.222368368377</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X23" t="n">
-        <v>1400.222368368377</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y23" t="n">
-        <v>1400.222368368377</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>355.8467647021305</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6069,13 +6069,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609043</v>
@@ -6090,28 +6090,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U24" t="n">
-        <v>1254.561044051268</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V24" t="n">
-        <v>1193.911257420887</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W24" t="n">
-        <v>939.6739006926853</v>
+        <v>870.0748676043007</v>
       </c>
       <c r="X24" t="n">
-        <v>731.8224004871524</v>
+        <v>662.2233673987679</v>
       </c>
       <c r="Y24" t="n">
-        <v>524.0621017221986</v>
+        <v>454.463068633814</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1455.88642825341</v>
       </c>
       <c r="S25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="T25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="C26" t="n">
-        <v>663.4273255867874</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T26" t="n">
-        <v>1286.226725594945</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y26" t="n">
-        <v>1032.389842527199</v>
+        <v>1425.397688154633</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>487.165748399574</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="C27" t="n">
-        <v>487.165748399574</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D27" t="n">
-        <v>338.2313387383227</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E27" t="n">
-        <v>178.9938837328672</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G27" t="n">
         <v>32.45932575975218</v>
@@ -6303,22 +6303,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6330,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1405.660889716547</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1204.75788082204</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>976.5552133595183</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>741.4031051277757</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>487.165748399574</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>487.165748399574</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.165748399574</v>
+        <v>170.8716990005819</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C28" t="n">
         <v>32.45932575975218</v>
@@ -6415,19 +6415,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X28" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1013.622528304255</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C29" t="n">
-        <v>644.6600113638435</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
         <v>32.45932575975218</v>
@@ -6461,7 +6461,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
@@ -6470,7 +6470,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6488,25 +6488,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U29" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V29" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W29" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X29" t="n">
-        <v>1400.222368368377</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y29" t="n">
-        <v>1400.222368368377</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39.95955255904698</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C30" t="n">
-        <v>39.95955255904698</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D30" t="n">
-        <v>39.95955255904698</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E30" t="n">
-        <v>39.95955255904698</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6573,19 +6573,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894781</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577354</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W30" t="n">
-        <v>455.5713515295337</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X30" t="n">
-        <v>247.7198513240009</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.95955255904698</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G31" t="n">
         <v>32.45932575975218</v>
@@ -6643,28 +6643,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1574.735921498931</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C32" t="n">
-        <v>1574.735921498931</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D32" t="n">
-        <v>1574.735921498931</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E32" t="n">
-        <v>1188.947668900687</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F32" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6698,16 +6698,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6722,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V32" t="n">
-        <v>1574.735921498931</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W32" t="n">
-        <v>1574.735921498931</v>
+        <v>1201.553308333119</v>
       </c>
       <c r="X32" t="n">
-        <v>1574.735921498931</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y32" t="n">
-        <v>1574.735921498931</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1335.799553443795</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6807,22 +6807,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894781</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V33" t="n">
-        <v>837.1253475541027</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W33" t="n">
-        <v>582.8879908259012</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X33" t="n">
-        <v>582.8879908259012</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.1276920609472</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.58058526620113</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="C34" t="n">
-        <v>68.58058526620113</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="D34" t="n">
-        <v>68.58058526620113</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="E34" t="n">
-        <v>68.58058526620113</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>68.58058526620113</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>68.58058526620113</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>68.58058526620113</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975218</v>
@@ -6886,22 +6886,22 @@
         <v>296.5701361642185</v>
       </c>
       <c r="T34" t="n">
-        <v>296.5701361642185</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="U34" t="n">
-        <v>296.5701361642185</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="V34" t="n">
-        <v>296.5701361642185</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="W34" t="n">
-        <v>296.5701361642185</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="X34" t="n">
-        <v>68.58058526620113</v>
+        <v>67.46279708410606</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.58058526620113</v>
+        <v>67.46279708410606</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="C35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>725.6649152390546</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>315.8249435250119</v>
       </c>
       <c r="H35" t="n">
         <v>222.1153555684087</v>
@@ -6935,16 +6935,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6962,25 +6962,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U35" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V35" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W35" t="n">
-        <v>222.1153555684087</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.1153555684087</v>
+        <v>1135.504886953097</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
         <v>32.45932575975218</v>
@@ -7017,49 +7017,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>447.6306040484151</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>847.048740652678</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026703</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577354</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295337</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240009</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904698</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C37" t="n">
-        <v>1389.353639620971</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D37" t="n">
-        <v>1389.353639620971</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E37" t="n">
         <v>1294.179012144411</v>
@@ -7114,31 +7114,31 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>1558.289822548878</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>1558.289822548878</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>1558.289822548878</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>1558.289822548878</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="U37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1558.289822548878</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>175.5296551370327</v>
+        <v>1118.831313238366</v>
       </c>
       <c r="C38" t="n">
-        <v>175.5296551370327</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D38" t="n">
-        <v>175.5296551370327</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E38" t="n">
-        <v>175.5296551370327</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>175.5296551370327</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G38" t="n">
-        <v>175.5296551370327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>175.5296551370327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V38" t="n">
-        <v>1291.903400644038</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W38" t="n">
-        <v>939.1347453739243</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X38" t="n">
-        <v>565.6689871128444</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y38" t="n">
-        <v>175.5296551370327</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>549.7496870371101</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="C39" t="n">
-        <v>375.2966577559831</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D39" t="n">
-        <v>226.3622480947319</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E39" t="n">
-        <v>67.12479308927635</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975218</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>417.4776594222134</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456783</v>
+        <v>737.8129789519152</v>
       </c>
       <c r="N39" t="n">
-        <v>1131.293373622612</v>
+        <v>1082.333634589533</v>
       </c>
       <c r="O39" t="n">
-        <v>1454.30688079717</v>
+        <v>1331.087048673495</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V39" t="n">
-        <v>1387.814179755866</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W39" t="n">
-        <v>1133.576823027665</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X39" t="n">
-        <v>925.7253228221321</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y39" t="n">
-        <v>717.9650240571782</v>
+        <v>247.8110527645798</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
         <v>32.45932575975218</v>
@@ -7363,19 +7363,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W40" t="n">
-        <v>71.82943156598947</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X40" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975218</v>
@@ -7439,22 +7439,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1423.083912230202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1169.247029162456</v>
+        <v>1499.596598348559</v>
       </c>
       <c r="V41" t="n">
-        <v>1169.247029162456</v>
+        <v>1168.533711004989</v>
       </c>
       <c r="W41" t="n">
-        <v>1169.247029162456</v>
+        <v>815.7650557348747</v>
       </c>
       <c r="X41" t="n">
-        <v>1169.247029162456</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.107697186644</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.45932575975218</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G42" t="n">
         <v>32.45932575975218</v>
@@ -7491,19 +7491,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>650.5264002711172</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>995.0470559087352</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1318.060563083293</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7515,25 +7515,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894781</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577354</v>
+        <v>1146.492867677841</v>
       </c>
       <c r="W42" t="n">
-        <v>455.5713515295337</v>
+        <v>892.2555109496392</v>
       </c>
       <c r="X42" t="n">
-        <v>247.7198513240009</v>
+        <v>684.4040107441064</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.95955255904698</v>
+        <v>476.6437119791524</v>
       </c>
     </row>
     <row r="43">
@@ -7591,19 +7591,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>1515.805677671536</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>1294.179012144411</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W43" t="n">
         <v>1294.179012144411</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F44" t="n">
         <v>442.2992974737949</v>
@@ -7655,7 +7655,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U44" t="n">
-        <v>1604.826722111973</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V44" t="n">
-        <v>1604.826722111973</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W44" t="n">
-        <v>1604.826722111973</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X44" t="n">
-        <v>1604.826722111973</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.687390136161</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>661.618777680701</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="C45" t="n">
         <v>487.165748399574</v>
@@ -7731,7 +7731,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M45" t="n">
         <v>546.7891136313474</v>
@@ -7761,16 +7761,16 @@
         <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>1193.860611630581</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W45" t="n">
-        <v>1193.860611630581</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.594413465723</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.8341147007691</v>
+        <v>496.6196464651036</v>
       </c>
     </row>
     <row r="46">
@@ -7837,19 +7837,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,7 +8070,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479948</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9015,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>390.1250211658777</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>197.8653233073661</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>364.5878977387108</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>118.980116585621</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>256.1837670754359</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275543</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>103.505681799068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>271.4185403566495</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -22592,13 +22592,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22607,13 +22607,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>108.7197514624917</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>201.9390274350188</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,7 +23027,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23066,25 +23066,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,22 +23097,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>52.02978932231852</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23157,13 +23157,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>87.28582189465754</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>72.50832747713162</v>
+        <v>190.9775824941027</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>78.52437462028941</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>197.4265213446724</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I13" t="n">
-        <v>126.1137933559314</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23513,7 +23513,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.41439893299201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>70.41439893299162</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>71.11679827583619</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159004</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23668,13 +23668,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>59.320056923945</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23750,7 +23750,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>70.41439893299201</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23823,10 +23823,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>111.6529744195644</v>
       </c>
       <c r="Y18" t="n">
-        <v>71.11679827583617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>137.1019036699756</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23947,7 +23947,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>338.6729122862099</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>250.4343755174023</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>44.25227630748157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24063,10 +24063,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>188.0976985286895</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
@@ -24175,16 +24175,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7272614763991</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>86.51545824285751</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>130.5347329448944</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,10 +24221,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>5.521489880521983</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24257,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24303,7 +24303,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>172.7572983853477</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>45.63728941704164</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>39.33204381001872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7266695472104</v>
@@ -24409,10 +24409,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>59.32005692394523</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>111.9550918641798</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>147.8448510108552</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24525,16 +24525,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>31.27845290133962</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24585,10 +24585,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>129.6030249771196</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.04223248620855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0520304715574</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,7 +24655,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,10 +24683,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>130.5347329448943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24728,10 +24728,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>124.9667939980791</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>137.643987862082</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,19 +24813,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5475149467566</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24883,16 +24883,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>59.320056923945</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24926,13 +24926,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24974,13 +24974,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>280.0041956463436</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>44.89780520516541</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,22 +24999,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,19 +25047,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>126.0434729034036</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>197.4265213446724</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>111.7805260354588</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>111.7419111466963</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25126,7 +25126,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>240.6678236386834</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,22 +25202,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>70.41439893299201</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185655</v>
+        <v>70.34224238427471</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21108144477559</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
@@ -25363,10 +25363,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>187.621475062241</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,10 +25391,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>50.18923778476562</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>46.11984342706219</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25448,13 +25448,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>38.05231206067444</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>110.750399737155</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
@@ -25488,7 +25488,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,16 +25603,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>186.5148647619667</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25643,7 +25643,7 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25679,22 +25679,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>22.63292842320658</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>129.1625214944092</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159.1079591185655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,13 +25713,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -25755,16 +25755,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>40.56946434659193</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>59.3200569239453</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25843,10 +25843,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>118.7087180534581</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>8.97193213363164</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25919,7 +25919,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>233.3403440201883</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>163.3491399034414</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -26001,16 +26001,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>51.06944902026828</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>140.8555754337624</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,7 +26077,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>247.3282077095206</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534072.2426615165</v>
+        <v>534072.2426615166</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534072.2426615168</v>
+        <v>534072.2426615166</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534072.2426615165</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534072.2426615164</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>534072.2426615165</v>
+        <v>534072.2426615166</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534072.2426615161</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534072.2426615165</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534072.2426615162</v>
+        <v>534072.2426615165</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534072.2426615166</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534072.2426615162</v>
+        <v>534072.2426615163</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534072.2426615165</v>
+        <v>534072.2426615162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534072.2426615162</v>
+        <v>534072.2426615161</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
         <v>166160.6725313323</v>
       </c>
       <c r="E2" t="n">
-        <v>213628.8970646065</v>
+        <v>213628.8970646064</v>
       </c>
       <c r="F2" t="n">
         <v>213628.8970646064</v>
@@ -26335,16 +26335,16 @@
         <v>213628.8970646064</v>
       </c>
       <c r="J2" t="n">
-        <v>213628.8970646064</v>
+        <v>213628.8970646065</v>
       </c>
       <c r="K2" t="n">
         <v>213628.8970646065</v>
       </c>
       <c r="L2" t="n">
-        <v>213628.8970646064</v>
+        <v>213628.8970646065</v>
       </c>
       <c r="M2" t="n">
-        <v>213628.8970646064</v>
+        <v>213628.8970646065</v>
       </c>
       <c r="N2" t="n">
         <v>213628.8970646065</v>
@@ -26353,7 +26353,7 @@
         <v>213628.8970646065</v>
       </c>
       <c r="P2" t="n">
-        <v>213628.8970646065</v>
+        <v>213628.8970646064</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="H4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="I4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="J4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="L4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="M4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="N4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="O4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="P4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33661.85435877275</v>
+        <v>36930.43973831898</v>
       </c>
       <c r="C6" t="n">
-        <v>114431.2858903204</v>
+        <v>117699.8712698668</v>
       </c>
       <c r="D6" t="n">
-        <v>114431.2858903204</v>
+        <v>117699.8712698667</v>
       </c>
       <c r="E6" t="n">
-        <v>15180.88084436147</v>
+        <v>18518.41532255357</v>
       </c>
       <c r="F6" t="n">
-        <v>182121.0509696081</v>
+        <v>185458.5854478003</v>
       </c>
       <c r="G6" t="n">
-        <v>182121.0509696081</v>
+        <v>185458.5854478003</v>
       </c>
       <c r="H6" t="n">
-        <v>182121.0509696081</v>
+        <v>185458.5854478003</v>
       </c>
       <c r="I6" t="n">
-        <v>182121.0509696081</v>
+        <v>185458.5854478003</v>
       </c>
       <c r="J6" t="n">
-        <v>119061.1083705019</v>
+        <v>122398.6428486941</v>
       </c>
       <c r="K6" t="n">
-        <v>182121.0509696082</v>
+        <v>185458.5854478004</v>
       </c>
       <c r="L6" t="n">
-        <v>182121.0509696081</v>
+        <v>185458.5854478004</v>
       </c>
       <c r="M6" t="n">
-        <v>141070.3531071602</v>
+        <v>144407.8875853525</v>
       </c>
       <c r="N6" t="n">
-        <v>182121.0509696082</v>
+        <v>185458.5854478004</v>
       </c>
       <c r="O6" t="n">
-        <v>182121.0509696082</v>
+        <v>185458.5854478004</v>
       </c>
       <c r="P6" t="n">
-        <v>182121.0509696082</v>
+        <v>185458.5854478003</v>
       </c>
     </row>
   </sheetData>
@@ -32312,10 +32312,10 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>68.45318092253945</v>
@@ -32324,7 +32324,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O18" t="n">
         <v>75.01019504100589</v>
@@ -32798,7 +32798,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>75.01019504100589</v>
@@ -33023,7 +33023,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>50.90881248409524</v>
@@ -33032,10 +33032,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>5.55401521312433</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O27" t="n">
         <v>75.01019504100589</v>
@@ -33260,7 +33260,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>50.90881248409524</v>
@@ -33269,10 +33269,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864766</v>
+        <v>72.71206045243338</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O30" t="n">
         <v>75.01019504100589</v>
@@ -33281,7 +33281,7 @@
         <v>60.20229453601701</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436761</v>
@@ -33497,7 +33497,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>50.90881248409524</v>
@@ -33509,7 +33509,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O33" t="n">
         <v>75.01019504100589</v>
@@ -33518,7 +33518,7 @@
         <v>60.20229453601701</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436761</v>
@@ -33737,22 +33737,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>31.41587571553987</v>
       </c>
       <c r="M36" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>40.24363958326609</v>
@@ -33974,22 +33974,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>0.9583558910937313</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34208,7 +34208,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>50.90881248409524</v>
@@ -34217,10 +34217,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100589</v>
@@ -34375,7 +34375,7 @@
         <v>92.9854473404466</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438472</v>
       </c>
       <c r="N44" t="n">
         <v>105.1383858978454</v>
@@ -34445,10 +34445,10 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J45" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>68.45318092253945</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,7 +34790,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,7 +35498,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144174</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35507,7 +35507,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>340.7791716323003</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>60.02388433300708</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>315.2420482051334</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>48.8789177282863</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36437,16 +36437,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36689,7 +36689,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>396.283090280415</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36926,10 +36926,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37160,10 +37160,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>263.7018412391249</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>233.2443214146787</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>170.3630375661004</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>41.25328128569732</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>197.6464274783363</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38023,7 +38023,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094069</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38032,7 +38032,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
         <v>53.63987744680304</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M45" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135693.61695664</v>
+        <v>1045781.422287345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>577488.7153283803</v>
+        <v>457415.4338186852</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5901760.513395686</v>
+        <v>5901760.513395687</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>184.8846683999675</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>130.9180362598743</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>160.6082254763319</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>180.7124674296862</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>138.7626787227698</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>104.699062326734</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>276.1565137023554</v>
@@ -1624,7 +1624,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>173.3217671684648</v>
       </c>
     </row>
     <row r="15">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.743079058534</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>63.6619314805788</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
-        <v>155.8903435161419</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>181.6688313162796</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>57.30685665238853</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.6773952840984261</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>175.7569470849741</v>
+        <v>208.7311438739628</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.203367682519121</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>98.5298424514685</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>53.04690325056189</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>51.34722522605568</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2414,10 +2414,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U24" t="n">
-        <v>214.3754300734786</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>47.42544083656865</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>12.49659271983034</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>19.00078036023299</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>92.23716638657861</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>100.3336973510089</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.1468615877626</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>134.6799353023804</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>200.8294330837151</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>71.03871516764293</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>298.5079747066204</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>8.907391761462712</v>
+        <v>23.70793863112362</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
         <v>198.1468615877626</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.948478500143493</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>227.2574210185059</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>372.8803503896975</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>97.59381008056096</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>72.38749818880014</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
         <v>162.3842949358346</v>
@@ -3164,13 +3164,13 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>85.3037837400701</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8294330837153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>71.59905930092062</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>68.27535471293758</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>147.9215374725856</v>
+        <v>98.99277699223994</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.8428928972591</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
         <v>225.9084462740043</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>166.670940136553</v>
       </c>
       <c r="X37" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>152.6716581469369</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>225.5505343995526</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>11.4569195826848</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>55.52621692640988</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>166.670940136553</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>105.888275126978</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.410930209908164</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>45.12809191956221</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>59.60918778458678</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.12671266923336</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9084462740043</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.670940136553</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2961362709901</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S44" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>94.08749254022761</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>156.1304603032501</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>117.9710071589712</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.4019428143499</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9084462740043</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.2693145670932</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>259.2693145670932</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>502.7180912111933</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>502.7180912111933</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V3" t="n">
-        <v>502.7180912111933</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W3" t="n">
-        <v>259.2693145670932</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>259.2693145670932</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.2693145670932</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E5" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,28 +4588,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
         <v>506.1786963984129</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W6" t="n">
-        <v>777.5613083818946</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>325.0531560887832</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>325.0531560887832</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>325.0531560887832</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>325.0531560887832</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,16 +4980,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.6303669847604</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C11" t="n">
-        <v>204.6303669847604</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D11" t="n">
-        <v>204.6303669847604</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E11" t="n">
-        <v>204.6303669847604</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F11" t="n">
-        <v>204.6303669847604</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G11" t="n">
-        <v>204.6303669847604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H11" t="n">
-        <v>204.6303669847604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N11" t="n">
         <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>483.5763404214831</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>483.5763404214831</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>483.5763404214831</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X11" t="n">
-        <v>483.5763404214831</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y11" t="n">
-        <v>483.5763404214831</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.3299761016439</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="C12" t="n">
-        <v>181.3299761016439</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="D12" t="n">
-        <v>181.3299761016439</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H12" t="n">
         <v>22.09252109618843</v>
@@ -5120,25 +5120,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>389.4554887048002</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>569.6735778131672</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N12" t="n">
-        <v>843.068526378499</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O12" t="n">
-        <v>843.068526378499</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>792.4577201184086</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>792.4577201184086</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V12" t="n">
-        <v>557.3056118866659</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W12" t="n">
-        <v>557.3056118866659</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X12" t="n">
-        <v>557.3056118866659</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="Y12" t="n">
-        <v>349.545313121712</v>
+        <v>281.2613488707625</v>
       </c>
     </row>
     <row r="13">
@@ -5220,19 +5220,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
         <v>22.09252109618843</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399829</v>
       </c>
       <c r="C14" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399829</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399829</v>
       </c>
       <c r="E14" t="n">
-        <v>1066.049756676706</v>
+        <v>787.1037832399829</v>
       </c>
       <c r="F14" t="n">
-        <v>787.1037832399832</v>
+        <v>508.1578098032603</v>
       </c>
       <c r="G14" t="n">
-        <v>508.1578098032604</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H14" t="n">
         <v>229.2118363665377</v>
@@ -5278,52 +5278,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618831</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412867</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823541</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901064</v>
+        <v>989.762025090106</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="Y14" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399829</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345.4799600385667</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C15" t="n">
-        <v>171.0269307574397</v>
+        <v>168.6270790693034</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693034</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693034</v>
       </c>
       <c r="F15" t="n">
         <v>22.09252109618843</v>
@@ -5357,52 +5357,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318533</v>
       </c>
       <c r="K15" t="n">
-        <v>153.7567014710228</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L15" t="n">
-        <v>153.7567014710228</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M15" t="n">
-        <v>367.8501726635176</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2451212288495</v>
+        <v>852.5880186827414</v>
       </c>
       <c r="O15" t="n">
-        <v>907.7419348121333</v>
+        <v>852.5880186827414</v>
       </c>
       <c r="P15" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296092</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="S15" t="n">
-        <v>943.7938093963777</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="T15" t="n">
-        <v>741.913909424487</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="U15" t="n">
-        <v>513.6952970586347</v>
+        <v>1040.321073515908</v>
       </c>
       <c r="V15" t="n">
-        <v>513.6952970586347</v>
+        <v>805.1689652841649</v>
       </c>
       <c r="W15" t="n">
-        <v>513.6952970586347</v>
+        <v>550.9316085559633</v>
       </c>
       <c r="X15" t="n">
-        <v>513.6952970586347</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="Y15" t="n">
-        <v>513.6952970586347</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="16">
@@ -5457,22 +5457,22 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
         <v>22.09252109618843</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696337</v>
       </c>
       <c r="C17" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696337</v>
       </c>
       <c r="D17" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696337</v>
       </c>
       <c r="E17" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696337</v>
       </c>
       <c r="F17" t="n">
-        <v>22.09252109618843</v>
+        <v>301.038494532911</v>
       </c>
       <c r="G17" t="n">
         <v>22.09252109618843</v>
@@ -5542,25 +5542,25 @@
         <v>962.1762753293414</v>
       </c>
       <c r="S17" t="n">
-        <v>804.7112818786929</v>
+        <v>962.1762753293414</v>
       </c>
       <c r="T17" t="n">
+        <v>962.1762753293414</v>
+      </c>
+      <c r="U17" t="n">
+        <v>962.1762753293414</v>
+      </c>
+      <c r="V17" t="n">
+        <v>858.9304414063563</v>
+      </c>
+      <c r="W17" t="n">
+        <v>858.9304414063563</v>
+      </c>
+      <c r="X17" t="n">
+        <v>858.9304414063563</v>
+      </c>
+      <c r="Y17" t="n">
         <v>579.9844679696337</v>
-      </c>
-      <c r="U17" t="n">
-        <v>579.9844679696337</v>
-      </c>
-      <c r="V17" t="n">
-        <v>579.9844679696337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>579.9844679696337</v>
-      </c>
-      <c r="X17" t="n">
-        <v>579.9844679696337</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>301.038494532911</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618843</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L18" t="n">
-        <v>22.09252109618843</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M18" t="n">
-        <v>288.9361218459455</v>
+        <v>399.8342145467766</v>
       </c>
       <c r="N18" t="n">
-        <v>562.3310704112773</v>
+        <v>673.2291631121084</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945611</v>
+        <v>921.9825771960707</v>
       </c>
       <c r="P18" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809421</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809421</v>
@@ -5621,19 +5621,19 @@
         <v>1104.626054809421</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809421</v>
+        <v>932.6220420606001</v>
       </c>
       <c r="T18" t="n">
-        <v>902.7461548375308</v>
+        <v>730.7421420887093</v>
       </c>
       <c r="U18" t="n">
-        <v>719.2422848210867</v>
+        <v>730.7421420887093</v>
       </c>
       <c r="V18" t="n">
-        <v>484.090176589344</v>
+        <v>495.5900338569666</v>
       </c>
       <c r="W18" t="n">
-        <v>229.8528198611423</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X18" t="n">
         <v>229.8528198611423</v>
@@ -5697,13 +5697,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031358</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="S19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="U19" t="n">
         <v>22.09252109618843</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C20" t="n">
-        <v>825.6800813726991</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E20" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="F20" t="n">
         <v>301.0384945329111</v>
-      </c>
-      <c r="F20" t="n">
-        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
         <v>22.09252109618843</v>
@@ -5758,7 +5758,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
         <v>586.3582880173956</v>
@@ -5797,7 +5797,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="Y20" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.09252109618843</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C21" t="n">
         <v>22.09252109618843</v>
@@ -5834,22 +5834,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618843</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888894</v>
+        <v>393.6055477467268</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542212</v>
+        <v>667.0004963120587</v>
       </c>
       <c r="N21" t="n">
-        <v>759.2151904085661</v>
+        <v>667.0004963120587</v>
       </c>
       <c r="O21" t="n">
-        <v>1025.71200399185</v>
+        <v>915.753910396021</v>
       </c>
       <c r="P21" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5864,19 +5864,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>927.0937850266196</v>
+        <v>893.7865155427926</v>
       </c>
       <c r="V21" t="n">
-        <v>691.9416767948768</v>
+        <v>658.6344073110499</v>
       </c>
       <c r="W21" t="n">
-        <v>437.7043200666752</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X21" t="n">
-        <v>229.8528198611423</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.09252109618843</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C22" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D22" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
         <v>22.09252109618843</v>
@@ -5937,25 +5937,25 @@
         <v>198.9927170031358</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>451.4537516288173</v>
       </c>
       <c r="F23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J23" t="n">
         <v>107.257212533911</v>
@@ -5995,19 +5995,19 @@
         <v>328.101962600968</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N23" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O23" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q23" t="n">
         <v>2023.392341960488</v>
@@ -6016,25 +6016,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S23" t="n">
-        <v>1923.867248575166</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T23" t="n">
-        <v>1923.867248575166</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U23" t="n">
-        <v>1923.867248575166</v>
+        <v>1969.809611404365</v>
       </c>
       <c r="V23" t="n">
-        <v>1592.804361231595</v>
+        <v>1969.809611404365</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.804361231595</v>
+        <v>1969.809611404365</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.804361231595</v>
+        <v>1596.343853143285</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.804361231595</v>
+        <v>1206.204521167473</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.2268824712791</v>
+        <v>474.1619588142418</v>
       </c>
       <c r="C24" t="n">
-        <v>814.7738531901521</v>
+        <v>474.1619588142418</v>
       </c>
       <c r="D24" t="n">
-        <v>665.8394435289008</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="E24" t="n">
-        <v>506.6019885234452</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="F24" t="n">
-        <v>360.0674305503302</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G24" t="n">
-        <v>221.8422862096645</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H24" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I24" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J24" t="n">
-        <v>40.46784683920975</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K24" t="n">
-        <v>245.8568488424076</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L24" t="n">
-        <v>583.4321048996658</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M24" t="n">
-        <v>1029.345727962612</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N24" t="n">
-        <v>1427.959586933671</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O24" t="n">
-        <v>1676.713001017633</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P24" t="n">
-        <v>1953.997783447158</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R24" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S24" t="n">
-        <v>1789.594856919893</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T24" t="n">
-        <v>1789.594856919893</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U24" t="n">
-        <v>1573.054018461834</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V24" t="n">
-        <v>1573.054018461834</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W24" t="n">
-        <v>1573.054018461834</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X24" t="n">
-        <v>1365.202518256301</v>
+        <v>733.7881416459186</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.442219491347</v>
+        <v>526.0278428809647</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.37233253271344</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="C25" t="n">
-        <v>88.37233253271344</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="D25" t="n">
-        <v>88.37233253271344</v>
+        <v>347.8937088486348</v>
       </c>
       <c r="E25" t="n">
-        <v>88.37233253271344</v>
+        <v>199.9806152662417</v>
       </c>
       <c r="F25" t="n">
-        <v>88.37233253271344</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="G25" t="n">
-        <v>40.46784683920975</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="H25" t="n">
-        <v>40.46784683920975</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="I25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K25" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L25" t="n">
         <v>155.7847551810659</v>
@@ -6189,10 +6189,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="X25" t="n">
-        <v>270.0207973629531</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y25" t="n">
-        <v>270.0207973629531</v>
+        <v>498.0103482609705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1246.653169920554</v>
+        <v>1614.060302550097</v>
       </c>
       <c r="C26" t="n">
-        <v>877.6906529801424</v>
+        <v>1614.060302550097</v>
       </c>
       <c r="D26" t="n">
-        <v>519.424954373392</v>
+        <v>1255.794603943347</v>
       </c>
       <c r="E26" t="n">
-        <v>133.6367017751477</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F26" t="n">
-        <v>40.46784683920975</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G26" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H26" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I26" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J26" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K26" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M26" t="n">
         <v>1033.983090059323</v>
@@ -6241,7 +6241,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O26" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P26" t="n">
         <v>1933.252382068733</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.639641851451</v>
+        <v>778.1126197432169</v>
       </c>
       <c r="C27" t="n">
-        <v>767.186612570324</v>
+        <v>603.6595904620899</v>
       </c>
       <c r="D27" t="n">
-        <v>665.8394435289008</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="E27" t="n">
-        <v>506.6019885234452</v>
+        <v>295.4877257953831</v>
       </c>
       <c r="F27" t="n">
-        <v>360.0674305503302</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G27" t="n">
-        <v>221.8422862096645</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H27" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I27" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J27" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K27" t="n">
-        <v>291.9427578142076</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L27" t="n">
-        <v>629.5180138714659</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.913354241303</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N27" t="n">
-        <v>1379.434009878921</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.107559530962</v>
+        <v>1771.354305833808</v>
       </c>
       <c r="P27" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.997783447159</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R27" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S27" t="n">
-        <v>1859.367801621261</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T27" t="n">
-        <v>1659.219456583117</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U27" t="n">
-        <v>1431.029106811395</v>
+        <v>1525.280702449254</v>
       </c>
       <c r="V27" t="n">
-        <v>1195.876998579653</v>
+        <v>1290.128594217512</v>
       </c>
       <c r="W27" t="n">
-        <v>941.639641851451</v>
+        <v>1290.128594217512</v>
       </c>
       <c r="X27" t="n">
-        <v>941.639641851451</v>
+        <v>1154.088255528239</v>
       </c>
       <c r="Y27" t="n">
-        <v>941.639641851451</v>
+        <v>946.3279567632849</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K28" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L28" t="n">
         <v>155.7847551810659</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>295.1523350450966</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V28" t="n">
-        <v>40.46784683920975</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1561.496732037562</v>
+        <v>1277.086109193924</v>
       </c>
       <c r="C29" t="n">
-        <v>1561.496732037562</v>
+        <v>908.1235922535125</v>
       </c>
       <c r="D29" t="n">
-        <v>1203.231033430811</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.231033430811</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="F29" t="n">
-        <v>792.2451286412038</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="G29" t="n">
-        <v>373.6925289249186</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H29" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I29" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J29" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009679</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L29" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M29" t="n">
         <v>1033.983090059323</v>
@@ -6478,7 +6478,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O29" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
         <v>1933.252382068733</v>
@@ -6487,28 +6487,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S29" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T29" t="n">
-        <v>1951.636064013373</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="U29" t="n">
-        <v>1951.636064013373</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="V29" t="n">
-        <v>1951.636064013373</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.636064013373</v>
+        <v>1578.609315968288</v>
       </c>
       <c r="X29" t="n">
-        <v>1951.636064013373</v>
+        <v>1578.609315968288</v>
       </c>
       <c r="Y29" t="n">
-        <v>1561.496732037562</v>
+        <v>1277.086109193924</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>690.0523832201911</v>
+        <v>526.0278428809645</v>
       </c>
       <c r="C30" t="n">
-        <v>515.5993539390641</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="D30" t="n">
-        <v>515.5993539390641</v>
+        <v>202.6404039385862</v>
       </c>
       <c r="E30" t="n">
-        <v>506.6019885234452</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="F30" t="n">
-        <v>360.0674305503302</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G30" t="n">
-        <v>221.8422862096645</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I30" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K30" t="n">
-        <v>211.9113158688472</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L30" t="n">
-        <v>549.4865719261054</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M30" t="n">
-        <v>906.0113666834375</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N30" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
@@ -6569,25 +6569,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S30" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1823.243996922344</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1595.053647150622</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V30" t="n">
-        <v>1359.901538918879</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W30" t="n">
-        <v>1105.664182190678</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X30" t="n">
-        <v>897.812681985145</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y30" t="n">
-        <v>690.0523832201911</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H31" t="n">
-        <v>48.49661300097085</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I31" t="n">
-        <v>48.49661300097085</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J31" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K31" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L31" t="n">
         <v>155.7847551810659</v>
@@ -6660,13 +6660,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="W31" t="n">
-        <v>208.5931782240099</v>
+        <v>268.4573977372271</v>
       </c>
       <c r="X31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1161.207645581615</v>
+        <v>1246.653169920555</v>
       </c>
       <c r="C32" t="n">
-        <v>792.2451286412038</v>
+        <v>1246.653169920555</v>
       </c>
       <c r="D32" t="n">
-        <v>792.2451286412038</v>
+        <v>1246.653169920555</v>
       </c>
       <c r="E32" t="n">
-        <v>792.2451286412038</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F32" t="n">
-        <v>792.2451286412038</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G32" t="n">
-        <v>373.6925289249186</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J32" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K32" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L32" t="n">
-        <v>654.3560310300138</v>
+        <v>654.3560310300142</v>
       </c>
       <c r="M32" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N32" t="n">
         <v>1405.120914245785</v>
@@ -6718,7 +6718,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P32" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q32" t="n">
         <v>2023.392341960488</v>
@@ -6739,13 +6739,13 @@
         <v>2023.392341960488</v>
       </c>
       <c r="W32" t="n">
-        <v>1924.812735818507</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X32" t="n">
-        <v>1551.346977557427</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1161.207645581615</v>
+        <v>1633.253009984676</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.2268824712791</v>
+        <v>288.0395611595288</v>
       </c>
       <c r="C33" t="n">
-        <v>814.7738531901521</v>
+        <v>113.5865318784018</v>
       </c>
       <c r="D33" t="n">
-        <v>665.8394435289008</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E33" t="n">
-        <v>506.6019885234452</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F33" t="n">
-        <v>360.0674305503302</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8422862096645</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I33" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J33" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>122.5224875632328</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L33" t="n">
-        <v>460.097743620491</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M33" t="n">
-        <v>906.0113666834375</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N33" t="n">
         <v>1379.434009878921</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.107559530962</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P33" t="n">
         <v>2023.392341960488</v>
@@ -6803,28 +6803,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T33" t="n">
-        <v>1659.219456583117</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U33" t="n">
-        <v>1659.219456583117</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V33" t="n">
-        <v>1659.219456583117</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W33" t="n">
-        <v>1573.054018461834</v>
+        <v>871.8666971500836</v>
       </c>
       <c r="X33" t="n">
-        <v>1365.202518256301</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.442219491347</v>
+        <v>456.2548981795969</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K34" t="n">
-        <v>1592.077693026647</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L34" t="n">
-        <v>1681.166748880583</v>
+        <v>155.7847551810659</v>
       </c>
       <c r="M34" t="n">
-        <v>1785.487790165713</v>
+        <v>260.1057964661965</v>
       </c>
       <c r="N34" t="n">
-        <v>1892.762926679929</v>
+        <v>367.3809329804118</v>
       </c>
       <c r="O34" t="n">
-        <v>1975.832582720299</v>
+        <v>450.4505890207823</v>
       </c>
       <c r="P34" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Q34" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="R34" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="S34" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T34" t="n">
-        <v>2023.392341960488</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.392341960488</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V34" t="n">
-        <v>1768.707853754601</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y34" t="n">
-        <v>1565.849840538727</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1564.470219774224</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="C35" t="n">
-        <v>1195.507702833812</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="D35" t="n">
-        <v>837.2420042270616</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="E35" t="n">
         <v>451.4537516288173</v>
       </c>
       <c r="F35" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G35" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H35" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I35" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J35" t="n">
-        <v>107.2572125339109</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009679</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L35" t="n">
-        <v>654.3560310300137</v>
+        <v>654.3560310300139</v>
       </c>
       <c r="M35" t="n">
         <v>1033.983090059323</v>
@@ -6952,7 +6952,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O35" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P35" t="n">
         <v>1933.252382068733</v>
@@ -6961,28 +6961,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>1951.070059838346</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S35" t="n">
-        <v>1951.070059838346</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T35" t="n">
-        <v>1951.070059838346</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U35" t="n">
-        <v>1951.070059838346</v>
+        <v>1954.427337199945</v>
       </c>
       <c r="V35" t="n">
-        <v>1951.070059838346</v>
+        <v>1954.427337199945</v>
       </c>
       <c r="W35" t="n">
-        <v>1951.070059838346</v>
+        <v>1601.658681929831</v>
       </c>
       <c r="X35" t="n">
-        <v>1951.070059838346</v>
+        <v>1228.192923668751</v>
       </c>
       <c r="Y35" t="n">
-        <v>1951.070059838346</v>
+        <v>838.0535916929391</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>721.9853912382671</v>
+        <v>526.0278428809645</v>
       </c>
       <c r="C36" t="n">
-        <v>547.5323619571401</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="D36" t="n">
-        <v>547.5323619571401</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="E36" t="n">
-        <v>398.116667540387</v>
+        <v>251.5821095672719</v>
       </c>
       <c r="F36" t="n">
         <v>251.5821095672719</v>
@@ -7013,25 +7013,25 @@
         <v>113.3569652266061</v>
       </c>
       <c r="I36" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
         <v>86.55375581100978</v>
       </c>
       <c r="K36" t="n">
-        <v>291.9427578142076</v>
+        <v>211.9113158688472</v>
       </c>
       <c r="L36" t="n">
-        <v>629.5180138714659</v>
+        <v>549.4865719261054</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.431636934412</v>
+        <v>869.8218914558072</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.059027874543</v>
+        <v>1343.24453465129</v>
       </c>
       <c r="O36" t="n">
-        <v>1890.732577526584</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P36" t="n">
         <v>1890.732577526584</v>
@@ -7043,25 +7043,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S36" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.392341960488</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.201992188766</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.049883957023</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W36" t="n">
-        <v>1305.812527228822</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X36" t="n">
-        <v>1097.961027023289</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.2007282583352</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K37" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L37" t="n">
         <v>155.7847551810659</v>
@@ -7128,19 +7128,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="V37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="W37" t="n">
-        <v>208.5931782240099</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1142.944132321277</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="C38" t="n">
-        <v>1142.944132321277</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="D38" t="n">
-        <v>784.6784337145261</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E38" t="n">
-        <v>784.6784337145261</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F38" t="n">
-        <v>373.6925289249186</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G38" t="n">
-        <v>373.6925289249186</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I38" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J38" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K38" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059323</v>
@@ -7189,7 +7189,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O38" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P38" t="n">
         <v>1933.252382068733</v>
@@ -7198,28 +7198,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S38" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T38" t="n">
-        <v>1869.178545852471</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="U38" t="n">
-        <v>1869.178545852471</v>
+        <v>1487.974505946725</v>
       </c>
       <c r="V38" t="n">
-        <v>1869.178545852471</v>
+        <v>1260.145683320914</v>
       </c>
       <c r="W38" t="n">
-        <v>1516.409890582356</v>
+        <v>1260.145683320914</v>
       </c>
       <c r="X38" t="n">
-        <v>1142.944132321277</v>
+        <v>1260.145683320914</v>
       </c>
       <c r="Y38" t="n">
-        <v>1142.944132321277</v>
+        <v>870.0063513451025</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>357.8125058608962</v>
+        <v>526.0278428809645</v>
       </c>
       <c r="C39" t="n">
-        <v>357.8125058608962</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="D39" t="n">
-        <v>357.8125058608962</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="E39" t="n">
-        <v>198.5750508554407</v>
+        <v>351.5748135998375</v>
       </c>
       <c r="F39" t="n">
-        <v>52.04049288232571</v>
+        <v>205.0402556267225</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46784683920975</v>
+        <v>205.0402556267225</v>
       </c>
       <c r="H39" t="n">
-        <v>40.46784683920975</v>
+        <v>96.55493464366418</v>
       </c>
       <c r="I39" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K39" t="n">
-        <v>291.9427578142076</v>
+        <v>165.8254068970472</v>
       </c>
       <c r="L39" t="n">
-        <v>629.5180138714659</v>
+        <v>395.7885127653963</v>
       </c>
       <c r="M39" t="n">
-        <v>1075.431636934412</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N39" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O39" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P39" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
@@ -7292,13 +7292,13 @@
         <v>1195.876998579653</v>
       </c>
       <c r="W39" t="n">
-        <v>941.639641851451</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X39" t="n">
-        <v>733.7881416459181</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.0278428809643</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.46784683920975</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="C40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J40" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L40" t="n">
         <v>155.7847551810659</v>
@@ -7365,19 +7365,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U40" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V40" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W40" t="n">
-        <v>40.46784683920975</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X40" t="n">
-        <v>40.46784683920975</v>
+        <v>391.0524945973564</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.46784683920975</v>
+        <v>391.0524945973564</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.757120883758</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="C41" t="n">
-        <v>1255.794603943347</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="D41" t="n">
-        <v>1255.794603943347</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E41" t="n">
         <v>870.0063513451025</v>
@@ -7402,22 +7402,22 @@
         <v>459.0204465554949</v>
       </c>
       <c r="G41" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I41" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J41" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K41" t="n">
-        <v>328.1019626009679</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M41" t="n">
         <v>1033.983090059323</v>
@@ -7426,7 +7426,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O41" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P41" t="n">
         <v>1933.252382068733</v>
@@ -7438,25 +7438,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S41" t="n">
-        <v>2014.89645285957</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T41" t="n">
-        <v>2014.89645285957</v>
+        <v>1977.808410728607</v>
       </c>
       <c r="U41" t="n">
-        <v>2014.89645285957</v>
+        <v>1977.808410728607</v>
       </c>
       <c r="V41" t="n">
-        <v>2014.89645285957</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="W41" t="n">
-        <v>2014.89645285957</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.89645285957</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.757120883758</v>
+        <v>1256.606191409224</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>452.0641014987553</v>
+        <v>829.9894274658235</v>
       </c>
       <c r="C42" t="n">
-        <v>277.6110722176282</v>
+        <v>655.5363981846965</v>
       </c>
       <c r="D42" t="n">
-        <v>277.6110722176282</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="E42" t="n">
-        <v>118.3736172121727</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F42" t="n">
-        <v>40.46784683920975</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G42" t="n">
-        <v>40.46784683920975</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H42" t="n">
-        <v>40.46784683920975</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I42" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J42" t="n">
-        <v>40.46784683920975</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K42" t="n">
-        <v>40.46784683920975</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="L42" t="n">
-        <v>327.4379791865879</v>
+        <v>327.4379791865878</v>
       </c>
       <c r="M42" t="n">
-        <v>773.3516022495344</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N42" t="n">
         <v>1246.774245445018</v>
@@ -7514,28 +7514,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R42" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S42" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T42" t="n">
-        <v>1753.471052220976</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U42" t="n">
-        <v>1525.280702449254</v>
+        <v>1795.201992188766</v>
       </c>
       <c r="V42" t="n">
-        <v>1290.128594217512</v>
+        <v>1560.049883957024</v>
       </c>
       <c r="W42" t="n">
-        <v>1035.89123748931</v>
+        <v>1305.812527228822</v>
       </c>
       <c r="X42" t="n">
-        <v>828.0397372837772</v>
+        <v>1097.961027023289</v>
       </c>
       <c r="Y42" t="n">
-        <v>620.2794385188233</v>
+        <v>890.2007282583354</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K43" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L43" t="n">
         <v>155.7847551810659</v>
@@ -7599,22 +7599,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T43" t="n">
-        <v>329.6558632745533</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U43" t="n">
-        <v>40.46784683920975</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V43" t="n">
-        <v>40.46784683920975</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7672,28 +7672,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R44" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S44" t="n">
-        <v>1833.797765359877</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T44" t="n">
-        <v>1612.585663039588</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="U44" t="n">
-        <v>1358.776774348522</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="V44" t="n">
-        <v>1027.713887004951</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="W44" t="n">
-        <v>1027.713887004951</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="X44" t="n">
-        <v>870.0063513451025</v>
+        <v>1646.745523385036</v>
       </c>
       <c r="Y44" t="n">
-        <v>870.0063513451025</v>
+        <v>1256.606191409224</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.8370462001233</v>
+        <v>933.9364866840624</v>
       </c>
       <c r="C45" t="n">
-        <v>347.3840169189963</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D45" t="n">
-        <v>198.449607257745</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E45" t="n">
-        <v>40.46784683920976</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F45" t="n">
-        <v>40.46784683920976</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G45" t="n">
-        <v>40.46784683920976</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H45" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>291.9427578142076</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L45" t="n">
-        <v>629.5180138714659</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.431636934412</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N45" t="n">
-        <v>1548.854280129896</v>
+        <v>1459.335685829271</v>
       </c>
       <c r="O45" t="n">
-        <v>1915.527829781937</v>
+        <v>1708.089099913234</v>
       </c>
       <c r="P45" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
@@ -7754,25 +7754,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S45" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T45" t="n">
-        <v>1823.243996922344</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="U45" t="n">
-        <v>1595.053647150622</v>
+        <v>1631.177451849539</v>
       </c>
       <c r="V45" t="n">
-        <v>1359.90153891888</v>
+        <v>1396.025343617797</v>
       </c>
       <c r="W45" t="n">
-        <v>1105.664182190678</v>
+        <v>1141.787986889595</v>
       </c>
       <c r="X45" t="n">
-        <v>897.8126819851452</v>
+        <v>933.9364866840624</v>
       </c>
       <c r="Y45" t="n">
-        <v>690.0523832201914</v>
+        <v>933.9364866840624</v>
       </c>
     </row>
     <row r="46">
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>324.1725077688536</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>407.4982257856888</v>
+        <v>362.9484307527277</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>358.3900654295889</v>
+        <v>418.2905476243737</v>
       </c>
       <c r="N15" t="n">
-        <v>407.4982257856888</v>
+        <v>300.2695912462228</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>392.5864374864154</v>
+        <v>164.7815364719189</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>407.4982257856886</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>418.2905476243737</v>
       </c>
       <c r="N21" t="n">
-        <v>351.1116657745907</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>304.4150540132376</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.07752568140141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>350.9664772170761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.07752568140141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K33" t="n">
-        <v>93.33365090048285</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.07752568140141</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>38.37712982223465</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>308.2107882314576</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.07752568140141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>57.0015986255101</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>319.7240587278228</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>147.3311825278412</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>15.28006029485408</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22868,13 +22868,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>25.75595987902514</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>208.5567658558928</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23108,10 +23108,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>65.33315660464297</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>24.33565468795956</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483785</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,16 +23345,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268741</v>
@@ -23387,25 +23387,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>61.09842224940206</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0739228767435</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>80.19643759900804</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
@@ -23475,7 +23475,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>343.739834920873</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>130.719532039356</v>
+        <v>130.7195320393561</v>
       </c>
       <c r="G14" t="n">
-        <v>139.005434824964</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>205.8118405263978</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>212.9161714875887</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.2681884137393</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>106.5408935627991</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>162.274494761615</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>80.19643759900804</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
         <v>222.9160118599466</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5773279611252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>130.7195320393561</v>
       </c>
       <c r="G17" t="n">
-        <v>415.1619485273195</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.92149701025591</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.5388828863797</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23861,22 +23861,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.26759492591427</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.3881265085311</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.78481791206877</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3155846423218</v>
+        <v>285.6381893582233</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C20" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>138.6917128032271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>142.9992813870191</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24104,7 +24104,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>50.17947915721973</v>
+        <v>17.205282368231</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>160.0434534161087</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
         <v>161.6656840978772</v>
@@ -24177,7 +24177,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206877</v>
       </c>
       <c r="T22" t="n">
         <v>227.6757534850358</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S23" t="n">
-        <v>89.1687883831366</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2707998041555</v>
+        <v>198.2238965535936</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>115.1859584238117</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>11.53301620052576</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1458319543754</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H25" t="n">
         <v>158.4955995708086</v>
       </c>
       <c r="I25" t="n">
-        <v>142.8287537878153</v>
+        <v>130.332161067985</v>
       </c>
       <c r="J25" t="n">
         <v>63.68592579338139</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>363.7330613032476</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>314.6388793551328</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>329.8924352648517</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S26" t="n">
         <v>187.6986308346051</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>47.11136821362982</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>71.09304990109712</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>85.46670318727496</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>147.9612661294427</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
         <v>251.2707998041555</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>87.72996394943317</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>148.7376886939382</v>
+        <v>133.9371418242773</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24855,13 +24855,13 @@
         <v>167.571272790944</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I31" t="n">
         <v>142.8287537878153</v>
       </c>
       <c r="J31" t="n">
-        <v>55.73744729323789</v>
+        <v>63.68592579338139</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>59.26557731808506</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>9.050019682564312</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
         <v>174.4037110746249</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S32" t="n">
         <v>187.6986308346051</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>251.6471586368521</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>75.05756737583862</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>166.3911994208495</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>85.69356525287571</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.49516771394399</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S35" t="n">
         <v>187.6986308346051</v>
@@ -25210,19 +25210,19 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2707998041555</v>
+        <v>182.9954450912179</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>9.72354298281536</v>
+        <v>58.652303463161</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>119.852058200038</v>
       </c>
       <c r="X37" t="n">
-        <v>59.26557731808504</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
         <v>174.4037110746249</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.0942270148646</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>66.32832315014875</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>102.2017240705823</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>125.3859733145743</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>16.63401027711254</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,16 +25605,16 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>119.852058200038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8213802620592</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S41" t="n">
-        <v>179.2877006246969</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>173.8718893775234</v>
       </c>
       <c r="U41" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>106.9239958652806</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>67.94249972415052</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T43" t="n">
-        <v>59.4813575941655</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>233.6647659299073</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>213.6006403752189</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>54.73749182934452</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.24313764105105</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>442954.5827641278</v>
+        <v>442954.5827641277</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>442954.5827641277</v>
+        <v>442954.5827641278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>604455.1939457123</v>
+        <v>604455.1939457125</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604455.1939457124</v>
+        <v>604455.1939457125</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604455.1939457123</v>
+        <v>604455.1939457126</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604455.1939457124</v>
+        <v>604455.1939457126</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604455.1939457125</v>
+        <v>604455.1939457124</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>604455.1939457125</v>
+        <v>604455.1939457124</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
         <v>166160.6725313324</v>
@@ -26328,7 +26328,7 @@
         <v>177181.8331056511</v>
       </c>
       <c r="G2" t="n">
-        <v>177181.8331056511</v>
+        <v>177181.833105651</v>
       </c>
       <c r="H2" t="n">
         <v>177181.8331056511</v>
@@ -26337,7 +26337,7 @@
         <v>241782.0775782847</v>
       </c>
       <c r="J2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="K2" t="n">
         <v>241782.0775782847</v>
@@ -26352,7 +26352,7 @@
         <v>241782.0775782848</v>
       </c>
       <c r="O2" t="n">
-        <v>241782.0775782848</v>
+        <v>241782.0775782847</v>
       </c>
       <c r="P2" t="n">
         <v>241782.0775782848</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>209917.1901890307</v>
+        <v>209917.1901890308</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213641</v>
+        <v>8757.582995213628</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,25 +26438,25 @@
         <v>206.5374179011836</v>
       </c>
       <c r="I4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="J4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="K4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="L4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="M4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="N4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="O4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
       <c r="P4" t="n">
         <v>383.1784976347245</v>
@@ -26490,25 +26490,25 @@
         <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="J5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="K5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="L5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="M5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="N5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="O5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="P5" t="n">
         <v>35829.43444762749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36930.43973831902</v>
+        <v>24712.42911827852</v>
       </c>
       <c r="C6" t="n">
-        <v>117699.8712698667</v>
+        <v>105481.8606498262</v>
       </c>
       <c r="D6" t="n">
-        <v>117699.8712698668</v>
+        <v>105481.8606498263</v>
       </c>
       <c r="E6" t="n">
-        <v>120792.6350417342</v>
+        <v>109125.6824504096</v>
       </c>
       <c r="F6" t="n">
-        <v>159421.5161709697</v>
+        <v>147754.5635796452</v>
       </c>
       <c r="G6" t="n">
-        <v>159421.5161709697</v>
+        <v>147754.5635796452</v>
       </c>
       <c r="H6" t="n">
-        <v>159421.5161709698</v>
+        <v>147754.5635796452</v>
       </c>
       <c r="I6" t="n">
-        <v>-4347.725556008176</v>
+        <v>-12784.66592370111</v>
       </c>
       <c r="J6" t="n">
-        <v>142509.5220339163</v>
+        <v>134072.5816662236</v>
       </c>
       <c r="K6" t="n">
-        <v>205569.4646330226</v>
+        <v>197132.5242653297</v>
       </c>
       <c r="L6" t="n">
-        <v>205569.4646330226</v>
+        <v>197132.5242653297</v>
       </c>
       <c r="M6" t="n">
-        <v>196811.8816378088</v>
+        <v>188374.941270116</v>
       </c>
       <c r="N6" t="n">
-        <v>205569.4646330226</v>
+        <v>197132.5242653298</v>
       </c>
       <c r="O6" t="n">
-        <v>205569.4646330226</v>
+        <v>197132.5242653297</v>
       </c>
       <c r="P6" t="n">
-        <v>205569.4646330226</v>
+        <v>197132.5242653298</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="J4" t="n">
         <v>505.8480854901219</v>
@@ -26819,7 +26819,7 @@
         <v>505.8480854901219</v>
       </c>
       <c r="L4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="M4" t="n">
         <v>505.8480854901219</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877665</v>
+        <v>229.6915717877666</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.1422248246964</v>
+        <v>35.14222482469634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
         <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31855,13 +31855,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>4.676990252263565</v>
@@ -32080,7 +32080,7 @@
         <v>7.116914878779982</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L15" t="n">
         <v>16.35591992358772</v>
@@ -32092,13 +32092,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>4.676990252263565</v>
@@ -32314,28 +32314,28 @@
         <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335883</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358772</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192328</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833406</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650261</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>4.676990252263565</v>
@@ -32551,10 +32551,10 @@
         <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335883</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>16.35591992358772</v>
@@ -32566,10 +32566,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650261</v>
+        <v>6.291582626313016</v>
       </c>
       <c r="Q21" t="n">
         <v>9.615648792164365</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H23" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I23" t="n">
         <v>36.07217849578105</v>
@@ -32724,22 +32724,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O23" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P23" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R23" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S23" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T23" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U23" t="n">
         <v>0.07485310368101888</v>
@@ -32788,10 +32788,10 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>47.29801453009627</v>
       </c>
       <c r="K24" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L24" t="n">
         <v>108.6991416049587</v>
@@ -32800,22 +32800,22 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N24" t="n">
-        <v>54.63959932670741</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>119.1112480485647</v>
       </c>
       <c r="P24" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R24" t="n">
         <v>31.08261889828898</v>
       </c>
       <c r="S24" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T24" t="n">
         <v>2.017867107059025</v>
@@ -32864,16 +32864,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I25" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J25" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K25" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L25" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M25" t="n">
         <v>65.79091221505894</v>
@@ -32882,25 +32882,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O25" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P25" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R25" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S25" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T25" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H26" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I26" t="n">
         <v>36.07217849578105</v>
@@ -32961,22 +32961,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O26" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P26" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R26" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S26" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T26" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U26" t="n">
         <v>0.07485310368101888</v>
@@ -33028,31 +33028,31 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K27" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L27" t="n">
         <v>108.6991416049587</v>
       </c>
       <c r="M27" t="n">
-        <v>85.9192129698335</v>
+        <v>126.8467712457017</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>130.2040278362276</v>
       </c>
       <c r="O27" t="n">
-        <v>119.1112480485647</v>
+        <v>20.03284908257552</v>
       </c>
       <c r="P27" t="n">
-        <v>95.59727759209559</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.90424840462011</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>31.08261889828898</v>
       </c>
       <c r="S27" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T27" t="n">
         <v>2.017867107059025</v>
@@ -33101,16 +33101,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I28" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J28" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K28" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L28" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M28" t="n">
         <v>65.79091221505894</v>
@@ -33119,25 +33119,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O28" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P28" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R28" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S28" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T28" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H29" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I29" t="n">
         <v>36.07217849578105</v>
@@ -33198,22 +33198,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O29" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P29" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R29" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S29" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T29" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U29" t="n">
         <v>0.07485310368101888</v>
@@ -33262,25 +33262,25 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J30" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L30" t="n">
         <v>108.6991416049587</v>
       </c>
       <c r="M30" t="n">
-        <v>36.55502548245488</v>
+        <v>126.8467712457017</v>
       </c>
       <c r="N30" t="n">
-        <v>130.2040278362276</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>119.1112480485647</v>
       </c>
       <c r="P30" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q30" t="n">
         <v>63.90424840462011</v>
@@ -33289,7 +33289,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S30" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T30" t="n">
         <v>2.017867107059025</v>
@@ -33338,16 +33338,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I31" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J31" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K31" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L31" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M31" t="n">
         <v>65.79091221505894</v>
@@ -33356,25 +33356,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O31" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P31" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R31" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S31" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T31" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H32" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I32" t="n">
         <v>36.07217849578105</v>
@@ -33435,22 +33435,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O32" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P32" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R32" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S32" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T32" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U32" t="n">
         <v>0.07485310368101888</v>
@@ -33502,7 +33502,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K33" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L33" t="n">
         <v>108.6991416049587</v>
@@ -33511,13 +33511,13 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N33" t="n">
-        <v>130.2040278362276</v>
+        <v>5.623864927970601</v>
       </c>
       <c r="O33" t="n">
         <v>119.1112480485647</v>
       </c>
       <c r="P33" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q33" t="n">
         <v>63.90424840462011</v>
@@ -33526,7 +33526,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S33" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T33" t="n">
         <v>2.017867107059025</v>
@@ -33575,16 +33575,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I34" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J34" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K34" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L34" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M34" t="n">
         <v>65.79091221505894</v>
@@ -33593,25 +33593,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O34" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P34" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R34" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S34" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T34" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H35" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I35" t="n">
         <v>36.07217849578105</v>
@@ -33672,22 +33672,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O35" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P35" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R35" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S35" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T35" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U35" t="n">
         <v>0.07485310368101888</v>
@@ -33739,22 +33739,22 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K36" t="n">
-        <v>80.8398403488489</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>108.6991416049587</v>
       </c>
       <c r="M36" t="n">
-        <v>126.8467712457017</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>105.1583184873865</v>
+        <v>130.2040278362276</v>
       </c>
       <c r="O36" t="n">
-        <v>119.1112480485647</v>
+        <v>21.66651147657205</v>
       </c>
       <c r="P36" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q36" t="n">
         <v>63.90424840462011</v>
@@ -33763,7 +33763,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S36" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T36" t="n">
         <v>2.017867107059025</v>
@@ -33812,16 +33812,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I37" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J37" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K37" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L37" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M37" t="n">
         <v>65.79091221505894</v>
@@ -33830,25 +33830,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O37" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P37" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R37" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S37" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T37" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H38" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I38" t="n">
         <v>36.07217849578105</v>
@@ -33909,22 +33909,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O38" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P38" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R38" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S38" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T38" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U38" t="n">
         <v>0.07485310368101888</v>
@@ -33973,16 +33973,16 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J39" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>80.8398403488489</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>108.6991416049587</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>126.8467712457017</v>
+        <v>57.80582823680425</v>
       </c>
       <c r="N39" t="n">
         <v>130.2040278362276</v>
@@ -33991,7 +33991,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P39" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q39" t="n">
         <v>63.90424840462011</v>
@@ -34000,7 +34000,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S39" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T39" t="n">
         <v>2.017867107059025</v>
@@ -34049,16 +34049,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I40" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J40" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K40" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L40" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M40" t="n">
         <v>65.79091221505894</v>
@@ -34067,25 +34067,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O40" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P40" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R40" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S40" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T40" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
@@ -34146,22 +34146,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O41" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P41" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R41" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S41" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T41" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U41" t="n">
         <v>0.07485310368101888</v>
@@ -34210,13 +34210,13 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>47.29801453009627</v>
       </c>
       <c r="K42" t="n">
-        <v>80.8398403488489</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>108.6991416049587</v>
+        <v>11.03143182548368</v>
       </c>
       <c r="M42" t="n">
         <v>126.8467712457017</v>
@@ -34228,7 +34228,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P42" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q42" t="n">
         <v>63.90424840462011</v>
@@ -34237,7 +34237,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S42" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T42" t="n">
         <v>2.017867107059025</v>
@@ -34286,16 +34286,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I43" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J43" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K43" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M43" t="n">
         <v>65.79091221505894</v>
@@ -34304,25 +34304,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O43" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P43" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R43" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T43" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J45" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>80.83984034884891</v>
@@ -34459,16 +34459,16 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N45" t="n">
-        <v>130.2040278362276</v>
+        <v>86.33262851418289</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1112480485647</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>95.59727759209561</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R45" t="n">
         <v>31.08261889828898</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>182.0384738468353</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023554</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>6.370323552522125</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>216.2560315075706</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1565137023554</v>
+        <v>168.9278791628896</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821095</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>269.5389906563203</v>
+        <v>22.64750254990062</v>
       </c>
       <c r="N18" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891755</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821095</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>248.6418854471727</v>
@@ -36211,16 +36211,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N21" t="n">
-        <v>219.7699536912574</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891755</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>190.7799438519199</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M23" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N23" t="n">
         <v>374.8866910974359</v>
@@ -36378,7 +36378,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K24" t="n">
         <v>207.4636383870685</v>
@@ -36448,16 +36448,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>402.6402615869276</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P24" t="n">
         <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M26" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N26" t="n">
         <v>374.8866910974359</v>
@@ -36615,7 +36615,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>207.4636383870685</v>
@@ -36682,19 +36682,19 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M27" t="n">
-        <v>409.4902427978151</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O27" t="n">
-        <v>370.3773228808498</v>
+        <v>271.2989239148606</v>
       </c>
       <c r="P27" t="n">
-        <v>280.0856388177025</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M29" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N29" t="n">
         <v>374.8866910974359</v>
@@ -36852,7 +36852,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M30" t="n">
-        <v>360.1260553104365</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N30" t="n">
-        <v>478.2046900964478</v>
+        <v>219.6247651337428</v>
       </c>
       <c r="O30" t="n">
         <v>370.3773228808498</v>
@@ -36931,7 +36931,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M32" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N32" t="n">
         <v>374.8866910974359</v>
@@ -37089,7 +37089,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>36.33205227497275</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37159,7 +37159,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N33" t="n">
-        <v>478.2046900964478</v>
+        <v>353.6245271881908</v>
       </c>
       <c r="O33" t="n">
         <v>370.3773228808498</v>
@@ -37314,7 +37314,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M35" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N35" t="n">
         <v>374.8866910974359</v>
@@ -37326,7 +37326,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383841</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K36" t="n">
-        <v>207.4636383870685</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>340.9851071285437</v>
       </c>
       <c r="M36" t="n">
-        <v>450.4178010736833</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>453.1589807476067</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O36" t="n">
-        <v>370.3773228808498</v>
+        <v>272.9325863088571</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
         <v>133.9997620544477</v>
@@ -37551,7 +37551,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M38" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N38" t="n">
         <v>374.8866910974359</v>
@@ -37563,7 +37563,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>207.4636383870685</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>340.9851071285437</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>450.4178010736833</v>
+        <v>381.3768580647858</v>
       </c>
       <c r="N39" t="n">
-        <v>307.0731039843519</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M41" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N41" t="n">
         <v>374.8866910974359</v>
@@ -37800,7 +37800,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>289.8688205529073</v>
+        <v>243.3173973490687</v>
       </c>
       <c r="M42" t="n">
         <v>450.4178010736833</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>207.4636383870685</v>
@@ -38107,16 +38107,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>478.2046900964478</v>
+        <v>434.3332907744031</v>
       </c>
       <c r="O45" t="n">
-        <v>370.3773228808498</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>108.9540527056066</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
